--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2289.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2289.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.125380454155142</v>
+        <v>1.18070387840271</v>
       </c>
       <c r="B1">
-        <v>3.554221156820305</v>
+        <v>2.394456148147583</v>
       </c>
       <c r="C1">
-        <v>3.60016174488156</v>
+        <v>3.651184320449829</v>
       </c>
       <c r="D1">
-        <v>3.756436173690998</v>
+        <v>2.057796478271484</v>
       </c>
       <c r="E1">
-        <v>1.217755973973506</v>
+        <v>1.204771399497986</v>
       </c>
     </row>
   </sheetData>
